--- a/src/analysis_examples/circadb/results_lomb/cosinor_10479833_optn_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10479833_optn_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.21326682429033827, 0.35388670359528407]</t>
+          <t>[0.21375493806544899, 0.35339858982017336]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.825541949886713e-08</v>
+        <v>3.412451876627642e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.825541949886713e-08</v>
+        <v>3.412451876627642e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5912106295043857</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.830210671218925, -0.3522105877898465]</t>
+          <t>[-0.8427896207828471, -0.33963163822592435]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>4.266262395158371e-05</v>
+        <v>7.828426467848537e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>4.266262395158371e-05</v>
+        <v>7.828426467848537e-05</v>
       </c>
       <c r="S2" t="n">
         <v>0.4879151942207818</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4510368112063837, 0.5247935772351798]</t>
+          <t>[0.4510507221630635, 0.5247796662785]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.633693693693814</v>
       </c>
       <c r="X2" t="n">
-        <v>1.56900900900908</v>
+        <v>1.512972972973046</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.698378378378549</v>
+        <v>3.754414414414583</v>
       </c>
     </row>
   </sheetData>
